--- a/TEST_PRUEBA.xlsx
+++ b/TEST_PRUEBA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
@@ -556,16 +552,65 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>2024-01-03T10:49:29.104Z</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2488</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test Ringover (NO TOCAR)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Estructura coplanar NOVOTEGRA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2024-01-03T10:49:29.104Z</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
